--- a/public/openpos.xlsx
+++ b/public/openpos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nishant\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB9DDB0-D838-44DD-9E1A-160C91897711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CAFEC9-100B-45AF-96A5-B300149D1E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -200,23 +200,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +489,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,127 +605,153 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="9">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
         <v>0</v>
       </c>
       <c r="J2" s="6">
         <v>1</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="6">
         <v>1518.4</v>
       </c>
       <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1188.8399999999999</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>420</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6">
         <v>2</v>
       </c>
-      <c r="M2" s="9">
-        <v>1228.8399999999999</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="9">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>420</v>
-      </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="9">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6">
+      <c r="U2" s="6">
+        <v>5606.78</v>
+      </c>
+      <c r="V2" s="6">
+        <v>6</v>
+      </c>
+      <c r="W2" s="6">
+        <v>76384.259999999995</v>
+      </c>
+      <c r="X2" s="6">
         <v>3</v>
       </c>
-      <c r="U2" s="9">
-        <v>17154.78</v>
-      </c>
-      <c r="V2" s="6">
-        <v>8</v>
-      </c>
-      <c r="W2" s="9">
-        <v>92367.86</v>
-      </c>
-      <c r="X2" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>14193.72</v>
+      <c r="Y2" s="6">
+        <v>24333.32</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="9">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="9">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>19578</v>
+        <v>4</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>15730</v>
       </c>
       <c r="R3" s="6">
         <v>4</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="6">
         <v>27170</v>
       </c>
       <c r="T3" s="6">
-        <v>21</v>
-      </c>
-      <c r="U3" s="9">
-        <v>134368.06</v>
+        <v>18</v>
+      </c>
+      <c r="U3" s="6">
+        <v>105817.06</v>
       </c>
       <c r="V3" s="6">
-        <v>33</v>
-      </c>
-      <c r="W3" s="9">
-        <v>186467.5</v>
+        <v>29</v>
+      </c>
+      <c r="W3" s="6">
+        <v>156498.51999999999</v>
       </c>
       <c r="X3" s="6">
         <v>19</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="6">
         <v>124870.26</v>
       </c>
     </row>
@@ -745,119 +759,153 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="9">
-        <v>0</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="9">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
         <v>0</v>
       </c>
       <c r="T4" s="6">
         <v>4</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="6">
         <v>967.41</v>
       </c>
       <c r="V4" s="6">
-        <v>1</v>
-      </c>
-      <c r="W4" s="9">
-        <v>1620</v>
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
       </c>
       <c r="X4" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="9">
-        <v>16508.72</v>
+        <v>4</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>18128.72</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="9">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
         <v>0</v>
       </c>
       <c r="N5" s="6">
         <v>1</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="6">
         <v>1654.8</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="9">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="9">
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
         <v>0</v>
       </c>
       <c r="T5" s="6">
         <v>1</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="6">
         <v>3150</v>
       </c>
       <c r="V5" s="6">
         <v>6</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="6">
         <v>31095.279999999999</v>
       </c>
       <c r="X5" s="6">
         <v>4</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="6">
         <v>11791.2</v>
       </c>
     </row>
@@ -865,117 +913,153 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="9">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="9">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6">
         <v>0</v>
       </c>
       <c r="V6" s="6">
-        <v>6</v>
-      </c>
-      <c r="W6" s="9">
-        <v>115970.46</v>
+        <v>5</v>
+      </c>
+      <c r="W6" s="6">
+        <v>85469.46</v>
       </c>
       <c r="X6" s="6">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>121070.5</v>
+        <v>4</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>79753.600000000006</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="9">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>0</v>
       </c>
       <c r="R7" s="6">
         <v>1</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="6">
         <v>15047.7</v>
       </c>
       <c r="T7" s="6">
         <v>3</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="6">
         <v>32122.15</v>
       </c>
       <c r="V7" s="6">
         <v>5</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="6">
         <v>69649.149999999994</v>
       </c>
       <c r="X7" s="6">
         <v>1</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="Y7" s="6">
         <v>1500</v>
       </c>
     </row>
@@ -983,56 +1067,76 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="9">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="9">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="9">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6">
         <v>0</v>
       </c>
       <c r="V8" s="6">
-        <v>21</v>
-      </c>
-      <c r="W8" s="9">
-        <v>230848.7</v>
+        <v>14</v>
+      </c>
+      <c r="W8" s="6">
+        <v>174489.42</v>
       </c>
       <c r="X8" s="6">
         <v>29</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="6">
         <v>259950.94</v>
       </c>
     </row>
@@ -1040,60 +1144,76 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="9">
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
         <v>0</v>
       </c>
       <c r="L9" s="6">
         <v>2</v>
       </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="9">
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
         <v>0</v>
       </c>
       <c r="T9" s="6">
-        <v>12</v>
-      </c>
-      <c r="U9" s="9">
-        <v>39844.550000000003</v>
+        <v>9</v>
+      </c>
+      <c r="U9" s="6">
+        <v>38847.35</v>
       </c>
       <c r="V9" s="6">
         <v>12</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="6">
         <v>287544.31</v>
       </c>
       <c r="X9" s="6">
         <v>15</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="6">
         <v>80280.5</v>
       </c>
     </row>
@@ -1101,66 +1221,76 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="9">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
         <v>0</v>
       </c>
       <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="9">
-        <v>5835</v>
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
       </c>
       <c r="N10" s="6">
         <v>1</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="6">
         <v>3712.5</v>
       </c>
       <c r="P10" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>74310.600000000006</v>
+        <v>4</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>6069.6</v>
       </c>
       <c r="R10" s="6">
-        <v>9</v>
-      </c>
-      <c r="S10" s="9">
-        <v>106044.85</v>
+        <v>5</v>
+      </c>
+      <c r="S10" s="6">
+        <v>40692.25</v>
       </c>
       <c r="T10" s="6">
-        <v>12</v>
-      </c>
-      <c r="U10" s="9">
-        <v>123682.3</v>
+        <v>11</v>
+      </c>
+      <c r="U10" s="6">
+        <v>119594.8</v>
       </c>
       <c r="V10" s="6">
-        <v>12</v>
-      </c>
-      <c r="W10" s="9">
-        <v>175248.05</v>
+        <v>11</v>
+      </c>
+      <c r="W10" s="6">
+        <v>169311.05</v>
       </c>
       <c r="X10" s="6">
         <v>27</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y10" s="6">
         <v>239818.8</v>
       </c>
     </row>
@@ -1168,249 +1298,307 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="9">
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
         <v>0</v>
       </c>
       <c r="L11" s="6">
         <v>2</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="6">
         <v>304.33999999999997</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="9">
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>5759.75</v>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>4765.25</v>
       </c>
       <c r="R11" s="6">
         <v>1</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="6">
         <v>594</v>
       </c>
       <c r="T11" s="6">
-        <v>2</v>
-      </c>
-      <c r="U11" s="9">
-        <v>7343.8</v>
+        <v>1</v>
+      </c>
+      <c r="U11" s="6">
+        <v>286.2</v>
       </c>
       <c r="V11" s="6">
         <v>5</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="6">
         <v>21836.48</v>
       </c>
       <c r="X11" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="9">
-        <v>31782.799999999999</v>
+        <v>4</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>34809.120000000003</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="9">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="9">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="9">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
         <v>0</v>
       </c>
       <c r="V12" s="6">
-        <v>1</v>
-      </c>
-      <c r="W12" s="9">
-        <v>1552.5</v>
-      </c>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="9">
+        <v>2</v>
+      </c>
+      <c r="W12" s="6">
+        <v>3702.5</v>
+      </c>
+      <c r="X12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="9">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>1</v>
       </c>
-      <c r="I13" s="9">
-        <v>10732.5</v>
+      <c r="I13" s="6">
+        <v>4010</v>
       </c>
       <c r="J13" s="6">
-        <v>3</v>
-      </c>
-      <c r="K13" s="9">
-        <v>1484.02</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="9">
+        <v>2</v>
+      </c>
+      <c r="K13" s="6">
+        <v>578.58000000000004</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
         <v>6</v>
       </c>
-      <c r="Q13" s="9">
-        <v>40953.050000000003</v>
+      <c r="Q13" s="6">
+        <v>22427.55</v>
       </c>
       <c r="R13" s="6">
-        <v>15</v>
-      </c>
-      <c r="S13" s="9">
-        <v>73487.22</v>
+        <v>14</v>
+      </c>
+      <c r="S13" s="6">
+        <v>58213.1</v>
       </c>
       <c r="T13" s="6">
-        <v>16</v>
-      </c>
-      <c r="U13" s="9">
-        <v>201755.74</v>
+        <v>14</v>
+      </c>
+      <c r="U13" s="6">
+        <v>194405.36</v>
       </c>
       <c r="V13" s="6">
         <v>17</v>
       </c>
-      <c r="W13" s="9">
+      <c r="W13" s="6">
         <v>317150.28000000003</v>
       </c>
       <c r="X13" s="6">
-        <v>28</v>
-      </c>
-      <c r="Y13" s="9">
-        <v>242480.71</v>
+        <v>29</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>246896.71</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="9">
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
         <v>0</v>
       </c>
       <c r="L14" s="6">
         <v>2</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="6">
         <v>2589.2600000000002</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="9">
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>0</v>
       </c>
       <c r="R14" s="6">
-        <v>2</v>
-      </c>
-      <c r="S14" s="9">
-        <v>2535.4</v>
+        <v>1</v>
+      </c>
+      <c r="S14" s="6">
+        <v>2470</v>
       </c>
       <c r="T14" s="6">
         <v>11</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="6">
         <v>31656.91</v>
       </c>
       <c r="V14" s="6">
-        <v>15</v>
-      </c>
-      <c r="W14" s="9">
-        <v>41877.879999999997</v>
+        <v>14</v>
+      </c>
+      <c r="W14" s="6">
+        <v>40294.04</v>
       </c>
       <c r="X14" s="6">
         <v>15</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="6">
         <v>72896.160000000003</v>
       </c>
     </row>
@@ -1418,60 +1606,76 @@
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="9">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="9">
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>0</v>
       </c>
       <c r="R15" s="6">
-        <v>3</v>
-      </c>
-      <c r="S15" s="9">
-        <v>143213.98000000001</v>
+        <v>2</v>
+      </c>
+      <c r="S15" s="6">
+        <v>120928</v>
       </c>
       <c r="T15" s="6">
         <v>2</v>
       </c>
-      <c r="U15" s="9">
-        <v>120577.5</v>
+      <c r="U15" s="6">
+        <v>96331</v>
       </c>
       <c r="V15" s="6">
         <v>2</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W15" s="6">
         <v>12590</v>
       </c>
       <c r="X15" s="6">
         <v>1</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Y15" s="6">
         <v>4506.99</v>
       </c>
     </row>
@@ -1479,54 +1683,76 @@
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="9">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
       </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="9">
-        <v>0</v>
-      </c>
-      <c r="V16" s="6"/>
-      <c r="W16" s="9">
-        <v>0</v>
-      </c>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="9">
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <v>0</v>
+      </c>
+      <c r="V16" s="6">
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <v>0</v>
+      </c>
+      <c r="X16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1534,125 +1760,153 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="9">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="6">
         <v>2</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>48554.7</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="9">
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
         <v>0</v>
       </c>
       <c r="J17" s="6">
         <v>1</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="6">
         <v>25221</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="9">
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
         <v>0</v>
       </c>
       <c r="P17" s="6">
         <v>3</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="6">
         <v>32925</v>
       </c>
       <c r="R17" s="6">
         <v>1</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="6">
         <v>13300</v>
       </c>
-      <c r="T17" s="6"/>
-      <c r="U17" s="9">
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6">
         <v>0</v>
       </c>
       <c r="V17" s="6">
         <v>3</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="6">
         <v>29984.59</v>
       </c>
       <c r="X17" s="6">
         <v>1</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="6">
         <v>6031.25</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="9">
+      <c r="A18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
         <v>0</v>
       </c>
       <c r="R18" s="6">
         <v>1</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="6">
         <v>2620</v>
       </c>
       <c r="T18" s="6">
         <v>1</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="6">
         <v>9853</v>
       </c>
       <c r="V18" s="6">
         <v>1</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="6">
         <v>491</v>
       </c>
       <c r="X18" s="6">
         <v>1</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y18" s="6">
         <v>2612.1</v>
       </c>
     </row>
@@ -1660,77 +1914,77 @@
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
         <v>3</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>48554.7</v>
       </c>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8">
-        <v>10732.5</v>
-      </c>
-      <c r="J19" s="8">
-        <v>5</v>
-      </c>
-      <c r="K19" s="8">
-        <v>28223.42</v>
-      </c>
-      <c r="L19" s="8">
-        <v>9</v>
-      </c>
-      <c r="M19" s="8">
-        <v>9957.44</v>
-      </c>
-      <c r="N19" s="8">
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>4010</v>
+      </c>
+      <c r="J19" s="6">
+        <v>4</v>
+      </c>
+      <c r="K19" s="6">
+        <v>27317.98</v>
+      </c>
+      <c r="L19" s="6">
+        <v>7</v>
+      </c>
+      <c r="M19" s="6">
+        <v>4082.44</v>
+      </c>
+      <c r="N19" s="6">
         <v>2</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="6">
         <v>5367.3</v>
       </c>
-      <c r="P19" s="8">
-        <v>26</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>173946.40000000002</v>
-      </c>
-      <c r="R19" s="8">
-        <v>37</v>
-      </c>
-      <c r="S19" s="8">
-        <v>384013.15</v>
-      </c>
-      <c r="T19" s="8">
-        <v>88</v>
-      </c>
-      <c r="U19" s="8">
-        <v>722476.20000000007</v>
-      </c>
-      <c r="V19" s="8">
-        <v>148</v>
-      </c>
-      <c r="W19" s="8">
-        <v>1616294.04</v>
-      </c>
-      <c r="X19" s="8">
-        <v>154</v>
-      </c>
-      <c r="Y19" s="8">
-        <v>1230294.6500000001</v>
+      <c r="P19" s="6">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>82337.399999999994</v>
+      </c>
+      <c r="R19" s="6">
+        <v>30</v>
+      </c>
+      <c r="S19" s="6">
+        <v>281035.05</v>
+      </c>
+      <c r="T19" s="6">
+        <v>77</v>
+      </c>
+      <c r="U19" s="6">
+        <v>638638.02</v>
+      </c>
+      <c r="V19" s="6">
+        <v>132</v>
+      </c>
+      <c r="W19" s="6">
+        <v>1476490.34</v>
+      </c>
+      <c r="X19" s="6">
+        <v>157</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>1208179.6700000002</v>
       </c>
     </row>
   </sheetData>

--- a/public/openpos.xlsx
+++ b/public/openpos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nishant\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nishant\shopify-backend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CAFEC9-100B-45AF-96A5-B300149D1E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E00F16-72CC-402B-B534-E6A10A470057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Customer</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Mar Value</t>
+  </si>
+  <si>
+    <t>SUGARBOO JEWELLERY</t>
   </si>
 </sst>
 </file>
@@ -487,12 +490,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Y7" sqref="Y7"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,16 +663,16 @@
         <v>0</v>
       </c>
       <c r="T2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2" s="6">
-        <v>5606.78</v>
+        <v>76.8</v>
       </c>
       <c r="V2" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W2" s="6">
-        <v>76384.259999999995</v>
+        <v>27037.5</v>
       </c>
       <c r="X2" s="6">
         <v>3</v>
@@ -725,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="6">
-        <v>15730</v>
+        <v>15355</v>
       </c>
       <c r="R3" s="6">
         <v>4</v>
@@ -737,22 +740,22 @@
         <v>27170</v>
       </c>
       <c r="T3" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U3" s="6">
-        <v>105817.06</v>
+        <v>82580.66</v>
       </c>
       <c r="V3" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W3" s="6">
-        <v>156498.51999999999</v>
+        <v>148106.51999999999</v>
       </c>
       <c r="X3" s="6">
         <v>19</v>
       </c>
       <c r="Y3" s="6">
-        <v>124870.26</v>
+        <v>124240.26</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -814,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="T4" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6">
-        <v>967.41</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6">
         <v>0</v>
@@ -1128,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W8" s="6">
-        <v>174489.42</v>
+        <v>164295.21</v>
       </c>
       <c r="X8" s="6">
         <v>29</v>
@@ -1258,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="6">
-        <v>3712.5</v>
+        <v>0</v>
       </c>
       <c r="P10" s="6">
         <v>4</v>
@@ -1329,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6">
-        <v>304.33999999999997</v>
+        <v>265.33999999999997</v>
       </c>
       <c r="N11" s="6">
         <v>0</v>
@@ -1341,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="6">
-        <v>4765.25</v>
+        <v>4742.8</v>
       </c>
       <c r="R11" s="6">
         <v>1</v>
@@ -1498,7 +1501,7 @@
         <v>6</v>
       </c>
       <c r="Q13" s="6">
-        <v>22427.55</v>
+        <v>23503.06</v>
       </c>
       <c r="R13" s="6">
         <v>14</v>
@@ -1513,10 +1516,10 @@
         <v>194405.36</v>
       </c>
       <c r="V13" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W13" s="6">
-        <v>317150.28000000003</v>
+        <v>322180.78000000003</v>
       </c>
       <c r="X13" s="6">
         <v>29</v>
@@ -1658,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="S15" s="6">
-        <v>120928</v>
+        <v>63213</v>
       </c>
       <c r="T15" s="6">
         <v>2</v>
@@ -1758,84 +1761,36 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2</v>
-      </c>
-      <c r="G17" s="6">
-        <v>48554.7</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1</v>
-      </c>
-      <c r="K17" s="6">
-        <v>25221</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>32925</v>
-      </c>
-      <c r="R17" s="6">
-        <v>1</v>
-      </c>
-      <c r="S17" s="6">
-        <v>13300</v>
-      </c>
-      <c r="T17" s="6">
-        <v>0</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0</v>
-      </c>
-      <c r="V17" s="6">
-        <v>3</v>
-      </c>
-      <c r="W17" s="6">
-        <v>29984.59</v>
-      </c>
-      <c r="X17" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="6">
-        <v>6031.25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>1</v>
+      <c r="A18" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -1850,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="6">
-        <v>0</v>
+        <v>48554.7</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -1862,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="6">
-        <v>0</v>
+        <v>25221</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -1880,111 +1835,188 @@
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="6">
-        <v>0</v>
+        <v>11662</v>
       </c>
       <c r="R18" s="6">
         <v>1</v>
       </c>
       <c r="S18" s="6">
-        <v>2620</v>
+        <v>13300</v>
       </c>
       <c r="T18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="6">
-        <v>9853</v>
+        <v>0</v>
       </c>
       <c r="V18" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W18" s="6">
-        <v>491</v>
+        <v>29984.59</v>
       </c>
       <c r="X18" s="6">
         <v>1</v>
       </c>
       <c r="Y18" s="6">
-        <v>2612.1</v>
+        <v>6031.25</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1</v>
+      </c>
+      <c r="S19" s="6">
+        <v>2620</v>
+      </c>
+      <c r="T19" s="6">
+        <v>1</v>
+      </c>
+      <c r="U19" s="6">
+        <v>9853</v>
+      </c>
+      <c r="V19" s="6">
+        <v>1</v>
+      </c>
+      <c r="W19" s="6">
+        <v>491</v>
+      </c>
+      <c r="X19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>2612.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
         <v>3</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="6">
         <v>48554.7</v>
       </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
         <v>4010</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J20" s="6">
         <v>4</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K20" s="6">
         <v>27317.98</v>
       </c>
-      <c r="L19" s="6">
-        <v>7</v>
-      </c>
-      <c r="M19" s="6">
-        <v>4082.44</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2</v>
-      </c>
-      <c r="O19" s="6">
-        <v>5367.3</v>
-      </c>
-      <c r="P19" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>82337.399999999994</v>
-      </c>
-      <c r="R19" s="6">
+      <c r="L20" s="6">
+        <v>6</v>
+      </c>
+      <c r="M20" s="6">
+        <v>4043.44</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1654.8</v>
+      </c>
+      <c r="P20" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>61752.46</v>
+      </c>
+      <c r="R20" s="6">
         <v>30</v>
       </c>
-      <c r="S19" s="6">
-        <v>281035.05</v>
-      </c>
-      <c r="T19" s="6">
-        <v>77</v>
-      </c>
-      <c r="U19" s="6">
-        <v>638638.02</v>
-      </c>
-      <c r="V19" s="6">
-        <v>132</v>
-      </c>
-      <c r="W19" s="6">
-        <v>1476490.34</v>
-      </c>
-      <c r="X19" s="6">
+      <c r="S20" s="6">
+        <v>223320.05</v>
+      </c>
+      <c r="T20" s="6">
+        <v>70</v>
+      </c>
+      <c r="U20" s="6">
+        <v>608904.23</v>
+      </c>
+      <c r="V20" s="6">
+        <v>128</v>
+      </c>
+      <c r="W20" s="6">
+        <v>1413587.87</v>
+      </c>
+      <c r="X20" s="6">
         <v>157</v>
       </c>
-      <c r="Y19" s="6">
-        <v>1208179.6700000002</v>
+      <c r="Y20" s="6">
+        <v>1207549.6700000002</v>
       </c>
     </row>
   </sheetData>
